--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -7,8 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="9月7日直播" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>七溪地非遗香品和非遗香茶</t>
   </si>
@@ -51,18 +50,9 @@
     <t>日常零售价</t>
   </si>
   <si>
-    <t>直播间到手价</t>
-  </si>
-  <si>
-    <t>佣金</t>
-  </si>
-  <si>
     <t>库存</t>
   </si>
   <si>
-    <t>赠品</t>
-  </si>
-  <si>
     <t>链接</t>
   </si>
   <si>
@@ -78,22 +68,41 @@
     <t>备注</t>
   </si>
   <si>
+    <t>几谷香颂 非遗线香（五合一）</t>
+  </si>
+  <si>
+    <t>熏香</t>
+  </si>
+  <si>
+    <t>50支/盒，130mm/支</t>
+  </si>
+  <si>
+    <t>128元</t>
+  </si>
+  <si>
+    <t>weixinstore/10000185206514</t>
+  </si>
+  <si>
+    <t>五合一 引流体验版
+梦香：拥香入梦甜；书香：添香伴书读；禅香：潜怀禅心意；馨香：怡情添雅致；清香：清风助正气；悠悠岁月心中境，坐对小窗闻妙香。品香是一种修行，小别凡尘，置身香境。凡心少一点，俗事去一半。</t>
+  </si>
+  <si>
+    <t>近期生产</t>
+  </si>
+  <si>
+    <t>愈久弥香</t>
+  </si>
+  <si>
+    <t>引流款</t>
+  </si>
+  <si>
     <t>书香</t>
   </si>
   <si>
-    <t>熏香</t>
-  </si>
-  <si>
     <t>32盘/盒</t>
   </si>
   <si>
     <t>198元</t>
-  </si>
-  <si>
-    <t>99元</t>
-  </si>
-  <si>
-    <t>洗护套装1套</t>
   </si>
   <si>
     <t>weixinstore/10000112427503</t>
@@ -134,10 +143,16 @@
     </r>
   </si>
   <si>
-    <t>近期生产</t>
-  </si>
-  <si>
-    <t>愈久弥香</t>
+    <t>梦香</t>
+  </si>
+  <si>
+    <t>weixinstore/10000097163828</t>
+  </si>
+  <si>
+    <t>1、采天然野生香材，按唐代药王孙思邈古方配伍，遵古法炮制的世间香境系列天然香，不含任何化学香精物质！
+2、配方：黄杞、夜交藤、缬草、薰衣草、柏子仁、檀香、当归、肉桂、黄柏、大黄、玄参、远志、桂枝、白芍、香附、甘草、木香、丁香、乳香、川芎、苍术、龙骨、楠香；主要成分采自七溪地
+3、功效：安神，辅助睡眠
+4、使用场景：睡前睡中、寝室</t>
   </si>
   <si>
     <t>闻道</t>
@@ -146,7 +161,7 @@
     <t>100根/盒</t>
   </si>
   <si>
-    <t>weixinstore/10000112449234</t>
+    <t>weixinstore/10000160225862</t>
   </si>
   <si>
     <r>
@@ -225,21 +240,6 @@
     </r>
   </si>
   <si>
-    <t>梦香</t>
-  </si>
-  <si>
-    <t>清香、阅香直播展示，也做链接，客人下单可以送一盒书香/梦香。书香、梦香并不单独挂链接</t>
-  </si>
-  <si>
-    <t>weixinstore/10000097163828</t>
-  </si>
-  <si>
-    <t>1、采天然野生香材，按唐代药王孙思邈古方配伍，遵古法炮制的世间香境系列天然香，不含任何化学香精物质！
-2、配方：黄杞、夜交藤、缬草、薰衣草、柏子仁、檀香、当归、肉桂、黄柏、大黄、玄参、远志、桂枝、白芍、香附、甘草、木香、丁香、乳香、川芎、苍术、龙骨、楠香；主要成分采自七溪地
-3、功效：安神，辅助睡眠
-4、使用场景：睡前睡中、寝室</t>
-  </si>
-  <si>
     <t>清香</t>
   </si>
   <si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>1280元</t>
-  </si>
-  <si>
-    <t>998元</t>
   </si>
   <si>
     <t>weixinstore/10000134550530</t>
@@ -341,16 +338,10 @@
     <t>修身香囊</t>
   </si>
   <si>
-    <t>手工艺品</t>
-  </si>
-  <si>
     <t>约15g/个</t>
   </si>
   <si>
     <t>88元</t>
-  </si>
-  <si>
-    <t>50元</t>
   </si>
   <si>
     <t>weixinstore/10000144588744</t>
@@ -361,17 +352,31 @@
 3、使用场景：身上、包里、衣柜、梳妆台、床头；适合自用，送礼</t>
   </si>
   <si>
+    <t>沉香茶（新品）</t>
+  </si>
+  <si>
+    <t>茶</t>
+  </si>
+  <si>
+    <t>10包/盒，每包6g</t>
+  </si>
+  <si>
+    <t>98元</t>
+  </si>
+  <si>
+    <t>weixinstore/10000148696735</t>
+  </si>
+  <si>
+    <t>居家自饮 高雅待客 馈赠佳品
+天然沉香茶功效：抗氧化、降血糖、调血脂……
+无须怕失眠，无须大量教育、没有头部品牌、存货历久弥香。</t>
+  </si>
+  <si>
     <t>黄杞茶(煮)
 新包装</t>
   </si>
   <si>
-    <t>茶</t>
-  </si>
-  <si>
     <t>150g/罐</t>
-  </si>
-  <si>
-    <t>98元</t>
   </si>
   <si>
     <t>weixinstore/10000145434125</t>
@@ -388,12 +393,6 @@
   </si>
   <si>
     <t>138元</t>
-  </si>
-  <si>
-    <t>68元</t>
-  </si>
-  <si>
-    <t>额外5包黄杞茶</t>
   </si>
   <si>
     <t>weixinstore/10000145391007</t>
@@ -414,28 +413,19 @@
     <t>372元</t>
   </si>
   <si>
-    <t>199元</t>
-  </si>
-  <si>
-    <t>额外送一盒黄杞茶</t>
-  </si>
-  <si>
     <t>weixinstore/10000148030961</t>
   </si>
   <si>
     <t>香膏</t>
   </si>
   <si>
-    <t>护肤品</t>
+    <t>手工制品</t>
   </si>
   <si>
     <t>5g/罐</t>
   </si>
   <si>
     <t>58元</t>
-  </si>
-  <si>
-    <t>38元</t>
   </si>
   <si>
     <t>weixinstore/10000141919664</t>
@@ -483,240 +473,12 @@
     <t>24元</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>1、成分：水，甘油，椰油，山茶花香精等
 2、功效：
 （1）洗发水：能去屑止痒，控油除螨，蓬松柔顺
 （2）护发素：能修复头发干枯毛躁，头发护理
 （3）沐浴露：能持久留香，补水保湿，除螨
 内含丰富的山茶花精油，洗完还具有淡淡的山茶花清香，给疲惫的人们带来一次不错的旅行体验，</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>森系香宿</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>溯溪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>套票</t>
-    </r>
-  </si>
-  <si>
-    <t>住宿</t>
-  </si>
-  <si>
-    <t>民宿1晚
-两大一小门票
-两大一小早餐</t>
-  </si>
-  <si>
-    <t>999元</t>
-  </si>
-  <si>
-    <t>599元</t>
-  </si>
-  <si>
-    <t>1、住香宿：可选房型（桃香洞房大床房/桃香洞房双床房+溪云豪华大床房/溪云豪华双床房+溪云豪华大床（阳光）+桃花岛豪华大床房+椿香舍双床房（天井茶室）+天香里优选大床房），可在系统设置房型为：（1）桃香洞房大床房/（2）桃香洞房双床房（3）森系香宿大床房（4）森系香宿双床房
-PS:可体验香房十香：香名、香枕、香茶、香薰、香植、香画、香拓、香沐、香浴、香语
-2、食香膳：2大2小早餐
-3、赏香瀑：2大2小山林野趣徒步溯溪，摸鱼抓虾看瀑布；
-4、游香园：2大2小景区门票，国家植物园芳香专类园；       5、逛乐园：2大2小研学乐园无限次畅玩项目：豆蔻迷宫、霍比特小屋、火山蹦床、12人旋转跷跷板、旋转飞椅、蜻蜓点水拓展4类、童趣秋千、儿童攀岩、滑滑梯、粉色沙滩、攀网等
-6、玩香道：香道活动3选1（香囊DIY、植物拓染、打香篆）
-7、听香导：两条户外游线，含专业芳香导游免费讲解 ：
-香道线【看百香园、探古老香坊、领略非遗文化】 
-香瀑溪【徒步山林，沿途4个瀑布，感受夏日丛林清凉】
-备注：2小指2名1.2米以下儿童；</t>
-  </si>
-  <si>
-    <t>加收规则：
-1、逢周六加收400元/间/晚；中秋9月14号不加收，9月15-16号加收400元/间（2）国庆9月28、30号不加收，10月1号-6号加收600元/间/间
-2、小孩超出人数或超高，按如下约定加收：
-a. 门票： 1.2 米以下小童免费； 1.2 米～1.5 米儿童 40 元/人（如需含香道活动套票补99元，大小同价）；身高 1.5 米以上全票。免费小童不得超过 2 位。超额住客享门票 5 折优惠，每间房优惠上限 2 人；
- b. 早餐： 1.2 米以下小童免费；1.2 米～1.5 米 38 元/人； 1.5 米以上 68元/人。免费小童不得超过 2 位。</t>
-  </si>
-  <si>
-    <t>发货时效，不能发货地区</t>
-  </si>
-  <si>
-    <t>890元</t>
-  </si>
-  <si>
-    <t>48元</t>
-  </si>
-  <si>
-    <t>1、配方：黄杞、乌榄、黄牛木、丁香、灵香草
-2、功效：减肥祛湿、修身助消化
-3、使用场景：身上、包里、衣柜、梳妆台、床头；适合自用，送礼</t>
-  </si>
-  <si>
-    <t>拆开包装后6个月</t>
-  </si>
-  <si>
-    <t>御身香囊</t>
-  </si>
-  <si>
-    <t>1、配方：藿香、菖蒲、艾叶、苍术、吴茱萸、丁香、薄荷、茴香、高良姜
-2、功效：预防感冒、正气强身
-3、使用场景：身上、包里、衣柜、梳妆台、床头；适合自用，送礼</t>
-  </si>
-  <si>
-    <t>电子隔火熏香炉</t>
-  </si>
-  <si>
-    <t>1、天青色电热香薰炉 1 套
-2、三君子：电源线、镊子、铝盘
-3、醒神香片 6 片、安神香片 6</t>
-  </si>
-  <si>
-    <t>399元</t>
-  </si>
-  <si>
-    <t>278元</t>
-  </si>
-  <si>
-    <t>1、隔火熏香 古之极致雅事；焚香、点茗、插画、挂画，古人四般雅事
-2、删繁就简 当代雅致熏香；不点明火，不出烟，就能闻到香；</t>
-  </si>
-  <si>
-    <t>四雅礼盒（香画版）</t>
-  </si>
-  <si>
-    <t>非遗香60根
-非遗茶8袋
-非遗香囊1个
-云山香插1个
-画卷1个</t>
-  </si>
-  <si>
-    <t>499元</t>
-  </si>
-  <si>
-    <t>348元</t>
-  </si>
-  <si>
-    <t>1、活色生香-四雅：茶·花·香·画
-2、场景：一炉清香，一锦香囊，一杯香茶；在寻常日子里，焚香、品茶、观云山，与内心对话，享受活色生香的雅致时光；送礼，送一套生活方式</t>
-  </si>
-  <si>
-    <t>茶保质期为3年</t>
-  </si>
-  <si>
-    <t>豪华香枕</t>
-  </si>
-  <si>
-    <t>320元</t>
-  </si>
-  <si>
-    <t>222元</t>
-  </si>
-  <si>
-    <t>黄杞茶礼袋装</t>
-  </si>
-  <si>
-    <t>16包，5g/包</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1、七溪地黄杞茶以七溪地万亩山林间原生黄杞干、枝、叶为原料，严格遵循非遗制茶技艺所制成的古树茶（秋冬采收，三蒸三晒）。
-2、功效：可清热祛湿、减脂修身，且自带甘甜。
-3、适宜群体：最宜湿热者或久坐办公室群体饮用。
-4、使用说明:铝箔装黄杞代泡茶，只需100℃开水冲泡，焖泡3分钟后，口
-感更佳；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>冲泡装，不用煮；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄杞茶甘甜</t>
-    </r>
-  </si>
-  <si>
-    <t>3年</t>
-  </si>
-  <si>
-    <t>黄杞茶牛皮纸袋装</t>
-  </si>
-  <si>
-    <t>150g/包</t>
-  </si>
-  <si>
-    <t>65元</t>
-  </si>
-  <si>
-    <t>1、七溪地黄杞茶以七溪地万亩山林间原生黄杞干、枝、叶为原料，严格遵循非遗制茶技艺所制成的古树茶（秋冬采收，三蒸三晒）。
-2、功效：可清热祛湿、减脂修身，且自带甘甜。
-3、适宜群体：最宜湿热者或久坐办公室群体饮用。
-4、使用说明:此黄杞茶以按古法炮制。后续饮用，只需每次取10g黄杞茶
-叶，凉水入锅，诗水烧开后，继续焖煮5-10分钟，口感最佳。铝箔装
-黄杞代泡茶，只需100℃开水冲泡，焖泡3分钟后，口感更佳。黄杞茶
-甘甜</t>
-  </si>
-  <si>
-    <t>香牌</t>
-  </si>
-  <si>
-    <t>普通款</t>
-  </si>
-  <si>
-    <t>1、根据古方，用七溪地野生原材料调配而成的香牌；通过闻香达到一定的效果
-2、功效：改善记忆力，提高免疫力，缓解老年痴呆
-3、使用场景：佩戴腰间、胸前，挂车上、包包，送礼等</t>
-  </si>
-  <si>
-    <t>香珠手串</t>
-  </si>
-  <si>
-    <t>10-13粒/串</t>
-  </si>
-  <si>
-    <t>1、根据古方，用七溪地野生原材料调配而成的香牌；通过闻香达到一定的效果
-2、功效：香身、理气、活血
-3、使用场景：佩戴手上，把玩等</t>
   </si>
 </sst>
 </file>
@@ -729,7 +491,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +500,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -747,22 +522,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri (Body)"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -915,20 +676,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1124,12 +871,42 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1256,7 +1033,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1268,34 +1045,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1380,51 +1157,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1745,27 +1531,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="4" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="4" width="22.6666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.1666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="10" max="11" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="58.6666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="33.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="33.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="52" customHeight="1" spans="1:1">
@@ -1773,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1810,1124 +1594,472 @@
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" ht="120" customHeight="1" spans="1:15">
+    <row r="3" ht="136" customHeight="1" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1">
+        <v>600</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I3" s="1">
-        <v>500</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="13"/>
-    </row>
-    <row r="4" ht="120" customHeight="1" spans="1:15">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I4" s="7">
-        <v>500</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4"/>
-    </row>
-    <row r="5" ht="120" customHeight="1" spans="1:15">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I5" s="7">
-        <v>500</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5"/>
-    </row>
-    <row r="6" ht="120" customHeight="1" spans="1:15">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I6" s="1">
-        <v>70</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="7" ht="120" customHeight="1" spans="1:15">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I7" s="1">
-        <v>8</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" ht="120" customHeight="1" spans="1:15">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I8" s="1">
-        <v>9</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" ht="120" customHeight="1" spans="1:15">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="13"/>
-    </row>
-    <row r="10" ht="120" customHeight="1" spans="1:15">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" ht="120" customHeight="1" spans="1:15">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" ht="120" customHeight="1" spans="1:15">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" ht="120" customHeight="1" spans="1:15">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>200</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" ht="120" customHeight="1" spans="1:15">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="I14" s="7">
-        <v>300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" ht="120" customHeight="1" spans="1:15">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="7">
-        <v>4000</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" ht="281" customHeight="1" spans="1:15">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="J6:J8"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="57.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6666666666667" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="52" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" ht="120" customHeight="1" spans="1:12">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="1">
-        <v>317</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" ht="120" customHeight="1" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1">
+        <v>500</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1">
-        <v>694</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="K4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" ht="120" customHeight="1" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1">
+        <v>250</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1">
-        <v>124</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="K5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" ht="120" customHeight="1" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6">
+        <v>500</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="1">
-        <v>141</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="K6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6"/>
     </row>
     <row r="7" ht="120" customHeight="1" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="1">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="G7" s="3">
+        <v>500</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7"/>
     </row>
     <row r="8" ht="120" customHeight="1" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="1">
-        <v>25</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" ht="120" customHeight="1" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="1">
-        <v>76</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" ht="120" customHeight="1" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>103</v>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="I10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="1">
-        <v>65</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" ht="120" customHeight="1" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="1">
-        <v>25</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" ht="120" customHeight="1" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>111</v>
+      <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="1">
-        <v>12</v>
-      </c>
-      <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="G12" s="3">
+        <v>500</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" ht="120" customHeight="1" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>81</v>
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="1">
-        <v>50</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" ht="120" customHeight="1" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>120</v>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="1">
-        <v>190</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" ht="120" customHeight="1" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>123</v>
+      <c r="B15" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J15" s="1">
-        <v>457</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G15" s="3">
+        <v>500</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" ht="120" customHeight="1" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>127</v>
+      <c r="B16" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" s="1">
-        <v>225</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G16" s="3">
+        <v>500</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="5"/>
     </row>
-    <row r="17" ht="120" customHeight="1" spans="1:12">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>50</v>
+    <row r="17" ht="84" spans="2:9">
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J17" s="1">
-        <v>238</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>25</v>
+        <v>84</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
